--- a/xlsx/country_comparison/petition_gcs_positive.xlsx
+++ b/xlsx/country_comparison/petition_gcs_positive.xlsx
@@ -12,11 +12,17 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t xml:space="preserve"/>
   </si>
   <si>
+    <t xml:space="preserve">United States</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Europe</t>
+  </si>
+  <si>
     <t xml:space="preserve">France</t>
   </si>
   <si>
@@ -27,9 +33,6 @@
   </si>
   <si>
     <t xml:space="preserve">United Kingdom</t>
-  </si>
-  <si>
-    <t xml:space="preserve">United States</t>
   </si>
   <si>
     <t xml:space="preserve">Petition for GCS</t>
@@ -386,45 +389,54 @@
       <c r="F1" t="s">
         <v>5</v>
       </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B2" t="n">
-        <v>0.681895214481907</v>
+        <v>0.510380196530389</v>
       </c>
       <c r="C2" t="n">
-        <v>0.663290810587498</v>
+        <v>0.696630594730689</v>
       </c>
       <c r="D2" t="n">
-        <v>0.763641134026349</v>
+        <v>0.692773054387497</v>
       </c>
       <c r="E2" t="n">
-        <v>0.705491528454673</v>
+        <v>0.666048128290673</v>
       </c>
       <c r="F2" t="n">
-        <v>0.510380196530389</v>
+        <v>0.763311307061962</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0.729734713272285</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B3" t="n">
-        <v>0.781995380252627</v>
+        <v>0.533050523673449</v>
       </c>
       <c r="C3" t="n">
-        <v>0.712010897427332</v>
+        <v>0.752698343735098</v>
       </c>
       <c r="D3" t="n">
-        <v>0.827767423293579</v>
+        <v>0.805398319468679</v>
       </c>
       <c r="E3" t="n">
-        <v>0.722976555380657</v>
+        <v>0.708750845625959</v>
       </c>
       <c r="F3" t="n">
-        <v>0.533050523673449</v>
+        <v>0.813439832560037</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0.745700372884844</v>
       </c>
     </row>
   </sheetData>

--- a/xlsx/country_comparison/petition_gcs_positive.xlsx
+++ b/xlsx/country_comparison/petition_gcs_positive.xlsx
@@ -398,22 +398,22 @@
         <v>7</v>
       </c>
       <c r="B2" t="n">
-        <v>0.510380196530389</v>
+        <v>0.510632323755612</v>
       </c>
       <c r="C2" t="n">
-        <v>0.696630594730689</v>
+        <v>0.691951410757099</v>
       </c>
       <c r="D2" t="n">
-        <v>0.692773054387497</v>
+        <v>0.693091880420722</v>
       </c>
       <c r="E2" t="n">
-        <v>0.666048128290673</v>
+        <v>0.656978514559047</v>
       </c>
       <c r="F2" t="n">
-        <v>0.763311307061962</v>
+        <v>0.781832319583008</v>
       </c>
       <c r="G2" t="n">
-        <v>0.729734713272285</v>
+        <v>0.692552700180898</v>
       </c>
     </row>
     <row r="3">
@@ -421,22 +421,22 @@
         <v>8</v>
       </c>
       <c r="B3" t="n">
-        <v>0.533050523673449</v>
+        <v>0.527972736493319</v>
       </c>
       <c r="C3" t="n">
-        <v>0.752698343735098</v>
+        <v>0.757320866764204</v>
       </c>
       <c r="D3" t="n">
-        <v>0.805398319468679</v>
+        <v>0.802845995450502</v>
       </c>
       <c r="E3" t="n">
-        <v>0.708750845625959</v>
+        <v>0.712681465751731</v>
       </c>
       <c r="F3" t="n">
-        <v>0.813439832560037</v>
+        <v>0.809917713113721</v>
       </c>
       <c r="G3" t="n">
-        <v>0.745700372884844</v>
+        <v>0.74106127773703</v>
       </c>
     </row>
   </sheetData>

--- a/xlsx/country_comparison/petition_gcs_positive.xlsx
+++ b/xlsx/country_comparison/petition_gcs_positive.xlsx
@@ -35,7 +35,7 @@
     <t xml:space="preserve">United Kingdom</t>
   </si>
   <si>
-    <t xml:space="preserve">Petition for GCS</t>
+    <t xml:space="preserve">Petition for the GCS</t>
   </si>
   <si>
     <t xml:space="preserve">Global climate scheme (GCS)</t>
@@ -421,7 +421,7 @@
         <v>8</v>
       </c>
       <c r="B3" t="n">
-        <v>0.527972736493319</v>
+        <v>0.542040008566919</v>
       </c>
       <c r="C3" t="n">
         <v>0.757320866764204</v>
